--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -393,11 +393,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -421,7 +422,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43104</v>
+        <v>43114</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,13 +19,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>今日计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余时间写数学学习总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陪女朋友出去逛花了一些时间
+下午吃饭看电视花了一些时间
+难度比我想的要大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:00:开始，最后未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不到一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日计划</t>
+    <t>实际完成时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -33,15 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划完成时间段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成时间段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充</t>
+    <t>12:00 - 16:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,7 +83,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12:00 - 16:20</t>
+    <t>晚上陪女朋友入睡花了一些时间
+然后就一点过了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,15 +92,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剩余时间写数学学习总结</t>
+    <t>没写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +115,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,17 +162,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -170,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -205,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -382,76 +475,104 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42.75">
+      <c r="A2" s="2">
+        <v>43114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43114</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>没写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习函数的单调性与曲线的凹凸性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写转正答辩ppt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:40 - 16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:30 - 17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习完扇贝今日剩余单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00 - 18:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +177,14 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -177,6 +207,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -184,23 +271,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -475,7 +578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -520,19 +623,19 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>43114</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -540,39 +643,78 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="5"/>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9">
+        <v>43118</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F2:F4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>18:00 - 18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某函数区间内，有限多个导数为0，其它时候保号，仍然是单调递增。一个能理解，两个就不能理解了，挨着的两个怎么破</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,25 +287,25 @@
     <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,7 +593,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -623,7 +627,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>43114</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -638,12 +642,12 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -656,10 +660,10 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -670,45 +674,47 @@
         <v>17</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>43118</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>在某函数区间内，有限多个导数为0，其它时候保号，仍然是单调递增。一个能理解，两个就不能理解了，挨着的两个怎么破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分之八十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,7 +605,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -686,7 +698,9 @@
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
@@ -700,7 +714,9 @@
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
@@ -712,9 +728,13 @@
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,19 +120,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分之八十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在某函数区间内，有限多个导数为0，其它时候保号，仍然是单调递增。一个能理解，两个就不能理解了，挨着的两个怎么破</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学习芯片手册关于ACL的内容，学到Virtual Slice Grouping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">16:25 - 17:15 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:25 - 18:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>没完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分之八十</t>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +204,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +238,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -210,47 +254,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -258,9 +284,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -269,25 +293,39 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,32 +337,68 @@
     <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,16 +676,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
@@ -619,16 +693,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -639,7 +713,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75">
-      <c r="A2" s="7">
+      <c r="A2" s="15">
         <v>43114</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -654,12 +728,12 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5">
-      <c r="A3" s="8"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -672,10 +746,10 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -686,10 +760,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11">
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="57">
+      <c r="A5" s="19">
         <v>43118</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -699,48 +773,275 @@
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="12"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="25"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="21">
+        <v>43122</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,22 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 10:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ACL，观摩上层代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30 - 11:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +235,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -325,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -392,6 +415,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -843,20 +874,30 @@
       <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="28">
+        <v>43123</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9"/>
@@ -1035,7 +1076,8 @@
       <c r="F33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="A5:A7"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,50 @@
   </si>
   <si>
     <t>10:30 - 11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体不适，完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ACL，观摩上层代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:25 - 15:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习lacp协议和生成树算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:25 - 16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:20 - 17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ACL，搞清楚怎么区分路由和交换的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30 - 18:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,6 +422,11 @@
     </xf>
     <xf numFmtId="20" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -417,14 +466,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -699,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,7 +764,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -744,7 +798,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75">
-      <c r="A2" s="15">
+      <c r="A2" s="18">
         <v>43114</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -759,12 +813,12 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5">
-      <c r="A3" s="15"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -777,10 +831,10 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -791,10 +845,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" ht="57">
-      <c r="A5" s="19">
+      <c r="A5" s="22">
         <v>43118</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -809,12 +863,12 @@
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -825,10 +879,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="24"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -839,10 +893,10 @@
         <v>25</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21">
+      <c r="A8" s="24">
         <v>43122</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -855,12 +909,12 @@
         <v>32</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
@@ -871,65 +925,87 @@
         <v>32</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28">
+      <c r="A10" s="17">
         <v>43123</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="31" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="31"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9"/>
@@ -1076,14 +1152,15 @@
       <c r="F33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 10:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ACL，观摩上层代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30 - 11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体不适，完成一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ACL，观摩上层代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:25 - 15:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习lacp协议和生成树算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:25 - 16:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:20 - 17:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ACL，搞清楚怎么区分路由和交换的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:30 - 18:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学习芯片手册关于ACL的内容，学到Virtual Slice Grouping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +208,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学习数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,71 +224,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lacp状态机晚上还需要看一下
+生成树算法的代码也搞忘了，看不懂，晚上要补一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:00 - 10:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习ACL，观摩上层代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:30 - 11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体不适，完成一部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大致完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习ACL，观摩上层代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:25 - 15:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习lacp协议和生成树算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15:25 - 16:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:20 - 17:20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习ACL，搞清楚怎么区分路由和交换的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:30 - 18:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +279,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -274,14 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -307,7 +320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -388,11 +401,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -417,16 +430,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -445,12 +451,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,16 +460,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -478,12 +475,37 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -753,7 +775,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -772,8 +794,8 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.625" customWidth="1"/>
     <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -798,7 +820,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75">
-      <c r="A2" s="18">
+      <c r="A2" s="15">
         <v>43114</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -813,12 +835,12 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5">
-      <c r="A3" s="18"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -831,10 +853,10 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -845,10 +867,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="57">
-      <c r="A5" s="22">
+      <c r="A5" s="19">
         <v>43118</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -863,12 +885,12 @@
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -879,10 +901,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -893,119 +915,127 @@
         <v>25</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="28"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="24">
+      <c r="A8" s="29">
         <v>43122</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="34"/>
+      <c r="B9" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="26">
+        <v>43123</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="27"/>
+      <c r="B11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="25"/>
-      <c r="B9" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="17">
-        <v>43123</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="27"/>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5">
+      <c r="A13" s="27"/>
+      <c r="B13" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="27"/>
+      <c r="B14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="33"/>
-      <c r="B11" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="33"/>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="28"/>
+      <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="33"/>
-      <c r="B13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="33"/>
-      <c r="B14" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="34"/>
-      <c r="B15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="D15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="9"/>
@@ -1153,14 +1183,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="F10:F15"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,51 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ACL，目标是基本看懂从cls到调用sdk接口之间的代码
+今天至少要搞清楚ctc与bcm的合并部分代码能不能写，以便于明天开始编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习ACL，目标是基本看懂从cls到调用sdk接口之间的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:40 - 10:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 - 11:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词20个，思考并调整一下后面一段时间的学习安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:20 - 12:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 - 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结学习acl的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10 - 17:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:20 - 18:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +478,35 @@
     <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +525,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,45 +540,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -775,7 +842,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -819,8 +886,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.75">
-      <c r="A2" s="15">
+    <row r="2" spans="1:6" ht="71.25">
+      <c r="A2" s="26">
         <v>43114</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -835,12 +902,12 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:6" ht="42.75">
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -853,10 +920,10 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="17"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="15"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -867,10 +934,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="57">
-      <c r="A5" s="19">
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="71.25">
+      <c r="A5" s="30">
         <v>43118</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -885,12 +952,12 @@
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="20"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -901,10 +968,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="20"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -915,42 +982,42 @@
         <v>25</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="23"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="29">
+      <c r="A8" s="32">
         <v>43122</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="37" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="34"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="26">
+      <c r="A10" s="20">
         <v>43123</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -963,12 +1030,12 @@
         <v>34</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
@@ -979,10 +1046,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="36"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="27"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -993,24 +1060,24 @@
         <v>43</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="36"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" ht="28.5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="36"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="13" t="s">
         <v>39</v>
       </c>
@@ -1021,10 +1088,10 @@
         <v>51</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="36"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1038,52 +1105,78 @@
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="32">
+        <v>43125</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:6" ht="42.75">
+      <c r="A19" s="41"/>
+      <c r="B19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9"/>
@@ -1181,8 +1274,18 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="F16:F21"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="F10:F15"/>
     <mergeCell ref="A2:A4"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,20 @@
   </si>
   <si>
     <t>17:20 - 18:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太好总结，边写边总结吧</t>
+  </si>
+  <si>
+    <t>移植工作大，没时间</t>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,84 +503,84 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -842,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -853,7 +867,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -887,7 +901,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="71.25">
-      <c r="A2" s="26">
+      <c r="A2" s="32">
         <v>43114</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -902,12 +916,12 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75">
-      <c r="A3" s="26"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
@@ -920,10 +934,10 @@
       <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="26"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -934,10 +948,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="29"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="1:6" ht="71.25">
-      <c r="A5" s="30">
+      <c r="A5" s="36">
         <v>43118</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -952,12 +966,12 @@
       <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="31"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -968,10 +982,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="31"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -982,10 +996,10 @@
         <v>25</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="32">
+      <c r="A8" s="23">
         <v>43122</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -998,12 +1012,12 @@
         <v>46</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="42" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="33"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="17" t="s">
         <v>48</v>
       </c>
@@ -1014,10 +1028,10 @@
         <v>46</v>
       </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="38"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="20">
+      <c r="A10" s="26">
         <v>43123</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1030,12 +1044,12 @@
         <v>34</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="13" t="s">
         <v>30</v>
       </c>
@@ -1046,10 +1060,10 @@
         <v>32</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1060,10 +1074,10 @@
         <v>43</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="28.5">
-      <c r="A13" s="21"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="19" t="s">
         <v>37</v>
       </c>
@@ -1074,10 +1088,10 @@
         <v>50</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="24"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="13" t="s">
         <v>39</v>
       </c>
@@ -1088,10 +1102,10 @@
         <v>51</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="24"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
@@ -1102,81 +1116,99 @@
         <v>51</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="25"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="32">
+      <c r="A16" s="23">
         <v>43125</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="E16" s="17"/>
-      <c r="F16" s="43"/>
+      <c r="F16" s="44">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="41"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="E17" s="17"/>
-      <c r="F17" s="44"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="41"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="E18" s="17"/>
-      <c r="F18" s="44"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" ht="42.75">
-      <c r="A19" s="41"/>
-      <c r="B19" s="40" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="44"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="41"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="44"/>
+      <c r="D20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="42"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="45"/>
+      <c r="D21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="43"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,6 +289,65 @@
   </si>
   <si>
     <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:10 - 11:40</t>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:10 - 12:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续研究ACL代码，细化了解每个部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 - 14:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00 - 15:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写开发计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:00 - 16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚合口代码移植，编译通过，另外去看一下自己板子还在不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00 - 17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40 - 18:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -421,11 +480,57 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -434,9 +539,16 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color theme="0"/>
@@ -444,14 +556,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -464,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,7 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -503,84 +616,140 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -856,7 +1025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -864,468 +1033,553 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.625" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.25" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="71.25">
-      <c r="A2" s="32">
+    <row r="2" spans="1:7" ht="71.25">
+      <c r="A2" s="37">
         <v>43114</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75">
-      <c r="A3" s="32"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:7" ht="42.75">
+      <c r="A3" s="37"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="32"/>
-      <c r="B4" s="2" t="s">
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="37"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="1:6" ht="71.25">
-      <c r="A5" s="36">
+      <c r="F4" s="2"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7" ht="71.25">
+      <c r="A5" s="41">
         <v>43118</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="G5" s="43" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="42"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="37"/>
-      <c r="B7" s="5" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="44"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="42"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="23">
+      <c r="F7" s="8"/>
+      <c r="G7" s="45"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="25">
         <v>43122</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="38"/>
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="56"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="26">
+      <c r="F9" s="16"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="49">
         <v>43123</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="27"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="50"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="27"/>
-      <c r="B12" s="1" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="50"/>
+      <c r="B12" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.5">
-      <c r="A13" s="27"/>
-      <c r="B13" s="19" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.5">
+      <c r="A13" s="50"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="13" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="50"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="28"/>
-      <c r="B15" s="13" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="51"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="23">
+      <c r="F15" s="12"/>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="55">
         <v>43125</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="44">
+      <c r="F16" s="16"/>
+      <c r="G16" s="28">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="24"/>
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="45"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="24"/>
-      <c r="B18" s="17" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6" ht="42.75">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" ht="42.75">
+      <c r="A19" s="26"/>
+      <c r="B19" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="E19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="24"/>
-      <c r="B20" s="17" t="s">
+      <c r="F19" s="16"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="25"/>
-      <c r="B21" s="17" t="s">
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="43"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="31">
+        <v>43126</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="32"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="32"/>
+      <c r="B24" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="32"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="32"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="32"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="33"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="G16:G21"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="G10:G15"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -331,23 +331,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>16:00 - 16:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00 - 17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:40 - 18:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>编写开发计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16:00 - 16:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聚合口代码移植，编译通过，另外去看一下自己板子还在不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:00 - 17:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:40 - 18:10</t>
+    <t>编写设计文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,111 +634,33 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,7 +670,85 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1025,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1036,7 +1036,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1051,10 +1051,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25">
-      <c r="A2" s="37">
+      <c r="A2" s="57">
         <v>43114</v>
       </c>
       <c r="B2" s="21"/>
@@ -1088,12 +1088,12 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75">
-      <c r="A3" s="37"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="21"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1107,10 +1107,10 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1122,10 +1122,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="40"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7" ht="71.25">
-      <c r="A5" s="41">
+      <c r="A5" s="61">
         <v>43118</v>
       </c>
       <c r="B5" s="22"/>
@@ -1141,12 +1141,12 @@
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="23"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
@@ -1158,10 +1158,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1173,13 +1173,13 @@
         <v>25</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="25">
+      <c r="A8" s="44">
         <v>43122</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="14" t="s">
         <v>44</v>
       </c>
@@ -1190,14 +1190,14 @@
         <v>46</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="67" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="56"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="58" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -1207,16 +1207,16 @@
         <v>46</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="49">
+      <c r="A10" s="51">
         <v>43123</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1226,14 +1226,14 @@
         <v>34</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="50"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1243,14 +1243,14 @@
         <v>32</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="35"/>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="50"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1260,12 +1260,12 @@
         <v>43</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="35"/>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="50"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="54" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1275,12 +1275,12 @@
         <v>50</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="35"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="50"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="53" t="s">
+      <c r="A14" s="52"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -1290,12 +1290,12 @@
         <v>51</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="35"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="51"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -1305,16 +1305,16 @@
         <v>51</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="36"/>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="55">
+      <c r="A16" s="47">
         <v>43125</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="28" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="16" t="s">
@@ -1324,13 +1324,13 @@
         <v>63</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="28">
+      <c r="G16" s="48">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="16" t="s">
         <v>55</v>
       </c>
@@ -1341,11 +1341,11 @@
         <v>63</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="16" t="s">
         <v>57</v>
       </c>
@@ -1356,11 +1356,11 @@
         <v>63</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="29"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="42.75">
-      <c r="A19" s="26"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="44" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -1373,11 +1373,11 @@
         <v>63</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>60</v>
       </c>
@@ -1390,11 +1390,11 @@
       <c r="F20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="16" t="s">
         <v>55</v>
       </c>
@@ -1407,104 +1407,104 @@
       <c r="F21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="31">
+      <c r="A22" s="34">
         <v>43126</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="62" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="62" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D25" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="32"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="62" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="36"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="32"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="62" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9"/>
@@ -1562,6 +1562,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="B24:B28"/>
@@ -1571,15 +1580,6 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,14 +348,26 @@
   </si>
   <si>
     <t>编写设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看ACL去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,6 +661,69 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,9 +754,6 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,64 +763,7 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,21 +1040,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1050,11 +1065,11 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="63"/>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1071,8 +1086,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="71.25">
-      <c r="A2" s="57">
+    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="43">
         <v>43114</v>
       </c>
       <c r="B2" s="21"/>
@@ -1088,12 +1103,12 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42.75">
-      <c r="A3" s="57"/>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
       <c r="B3" s="21"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1107,10 +1122,10 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="57"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
       <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1122,10 +1137,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="5" spans="1:7" ht="71.25">
-      <c r="A5" s="61">
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="47">
         <v>43118</v>
       </c>
       <c r="B5" s="22"/>
@@ -1141,12 +1156,12 @@
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="62"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
       <c r="B6" s="23"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
@@ -1158,10 +1173,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="65"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="62"/>
+      <c r="G6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
       <c r="B7" s="23"/>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1173,10 +1188,10 @@
         <v>25</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="66"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="44">
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="49">
         <v>43122</v>
       </c>
       <c r="B8" s="30"/>
@@ -1190,12 +1205,12 @@
         <v>46</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="63"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
       <c r="B9" s="31"/>
       <c r="C9" s="29" t="s">
         <v>48</v>
@@ -1207,13 +1222,13 @@
         <v>46</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="51">
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="37">
         <v>43123</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="64" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -1226,13 +1241,13 @@
         <v>34</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="52"/>
-      <c r="B11" s="43"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="26" t="s">
         <v>30</v>
       </c>
@@ -1243,11 +1258,11 @@
         <v>32</v>
       </c>
       <c r="F11" s="12"/>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="52"/>
-      <c r="B12" s="43" t="s">
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="64" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -1260,11 +1275,11 @@
         <v>43</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="52"/>
-      <c r="B13" s="43"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="27" t="s">
         <v>37</v>
       </c>
@@ -1275,11 +1290,11 @@
         <v>50</v>
       </c>
       <c r="F13" s="12"/>
-      <c r="G13" s="55"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="52"/>
-      <c r="B14" s="43"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="26" t="s">
         <v>39</v>
       </c>
@@ -1290,11 +1305,11 @@
         <v>51</v>
       </c>
       <c r="F14" s="12"/>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="53"/>
-      <c r="B15" s="43"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="39"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="26" t="s">
         <v>41</v>
       </c>
@@ -1305,13 +1320,13 @@
         <v>51</v>
       </c>
       <c r="F15" s="12"/>
-      <c r="G15" s="56"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="47">
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="67">
         <v>43125</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -1324,13 +1339,13 @@
         <v>63</v>
       </c>
       <c r="F16" s="16"/>
-      <c r="G16" s="48">
+      <c r="G16" s="34">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="16" t="s">
         <v>55</v>
       </c>
@@ -1341,11 +1356,11 @@
         <v>63</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="16" t="s">
         <v>57</v>
       </c>
@@ -1356,11 +1371,11 @@
         <v>63</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="49"/>
-    </row>
-    <row r="19" spans="1:7" ht="42.75">
-      <c r="A19" s="45"/>
-      <c r="B19" s="44" t="s">
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="65"/>
+      <c r="B19" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -1373,11 +1388,11 @@
         <v>63</v>
       </c>
       <c r="F19" s="16"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="16" t="s">
         <v>60</v>
       </c>
@@ -1390,11 +1405,11 @@
       <c r="F20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="49"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="16" t="s">
         <v>55</v>
       </c>
@@ -1407,13 +1422,13 @@
       <c r="F21" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="34">
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="55">
         <v>43126</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="55" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="32" t="s">
@@ -1422,26 +1437,32 @@
       <c r="D22" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="32"/>
+      <c r="E22" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="36"/>
-      <c r="B23" s="35"/>
+      <c r="G22" s="68">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="57"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="32" t="s">
         <v>68</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="36"/>
-      <c r="B24" s="38" t="s">
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="57"/>
+      <c r="B24" s="59" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="32" t="s">
@@ -1450,63 +1471,75 @@
       <c r="D24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="57"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="32" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="32"/>
+      <c r="E25" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="36"/>
-      <c r="B26" s="39"/>
+      <c r="G25" s="60"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="57"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="32" t="s">
         <v>80</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="32"/>
+      <c r="E26" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
+      <c r="G26" s="60"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="57"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="32" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="32" t="s">
+        <v>84</v>
+      </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="37"/>
-      <c r="B28" s="40"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="58"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="E28" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="61"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1515,7 +1548,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1524,7 +1557,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1533,7 +1566,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1542,7 +1575,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1551,7 +1584,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1561,7 +1594,17 @@
       <c r="G34" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="G16:G21"/>
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="G10:G15"/>
@@ -1571,15 +1614,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A16:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,14 +360,90 @@
   </si>
   <si>
     <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植trunk的代码，编译通过，测一下消息能下发不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学一小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看rps关于acl的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA - 11:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词30个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:10 - 12:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:50 - 15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:10 - 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:10 - 下班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果还有剩余时间就背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班前的剩余时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成晚上任务为打卡标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +505,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -590,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -612,7 +696,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -661,13 +744,82 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -706,64 +858,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,43 +1144,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="49.5" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="46.25" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1086,11 +1190,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
+    <row r="2" spans="1:7" ht="71.25">
+      <c r="A2" s="65">
         <v>43114</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1103,13 +1207,13 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="21"/>
+    <row r="3" spans="1:7" ht="42.75">
+      <c r="A3" s="65"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1122,11 +1226,11 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="21"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="65"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1137,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="47">
+      <c r="G4" s="68"/>
+    </row>
+    <row r="5" spans="1:7" ht="71.25">
+      <c r="A5" s="69">
         <v>43118</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1156,13 +1260,13 @@
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="23"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="70"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1173,11 +1277,11 @@
         <v>24</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="23"/>
+      <c r="G6" s="36"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="70"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1188,432 +1292,523 @@
         <v>25</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="53"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="49">
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="33">
         <v>43122</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="54" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="29" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="34"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="37">
+      <c r="F9" s="15"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="59">
         <v>43123</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="40" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="62" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="26" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="60"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="64" t="s">
+      <c r="F11" s="11"/>
+      <c r="G11" s="63"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="60"/>
+      <c r="B12" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="27" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="63"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.5">
+      <c r="A13" s="60"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="26" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="63"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="60"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="26" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="63"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="61"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="67">
+      <c r="F15" s="11"/>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="56">
         <v>43125</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="34">
+      <c r="F16" s="15"/>
+      <c r="G16" s="57">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="16" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="16" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="49" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="58"/>
+    </row>
+    <row r="19" spans="1:7" ht="42.75">
+      <c r="A19" s="54"/>
+      <c r="B19" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="16" t="s">
+      <c r="F19" s="15"/>
+      <c r="G19" s="58"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="16" t="s">
+      <c r="G20" s="58"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="55">
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="46">
         <v>43126</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="68">
+      <c r="F22" s="31"/>
+      <c r="G22" s="43">
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="32" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="48"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="60"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="59" t="s">
+      <c r="F23" s="31"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="48"/>
+      <c r="B24" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="60"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="32" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="44"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="48"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="60"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="32" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="48"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="60"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="32" t="s">
+      <c r="F26" s="31"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="48"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="60"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="32" t="s">
+      <c r="F27" s="31"/>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="49"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="61"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="42">
+        <v>43127</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="71"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="71"/>
+      <c r="B31" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="71"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="71"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="71"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="71"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="71"/>
+      <c r="B36" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="71"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="71"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B24:B28"/>
+  <mergeCells count="24">
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="F36:F38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A16:A21"/>
-    <mergeCell ref="G16:G21"/>
     <mergeCell ref="A10:A15"/>
-    <mergeCell ref="G10:G15"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="G10:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/day计划表.xlsx
+++ b/Personal/xueyu/plan/day计划表.xlsx
@@ -363,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>移植trunk的代码，编译通过，测一下消息能下发不</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学习数学一小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +432,10 @@
   </si>
   <si>
     <t>完成晚上任务为打卡标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学一小时，最终目标是学完定积分这一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,28 +744,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -774,28 +765,16 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -807,6 +786,9 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,12 +798,6 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,45 +805,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,7 +1144,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1170,10 +1170,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="71.25">
-      <c r="A2" s="65">
+      <c r="A2" s="54">
         <v>43114</v>
       </c>
       <c r="B2" s="20"/>
@@ -1207,12 +1207,12 @@
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="42.75">
-      <c r="A3" s="65"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="20"/>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1226,10 +1226,10 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="67"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>2</v>
@@ -1241,10 +1241,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="68"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" ht="71.25">
-      <c r="A5" s="69">
+      <c r="A5" s="36">
         <v>43118</v>
       </c>
       <c r="B5" s="21"/>
@@ -1260,12 +1260,12 @@
       <c r="F5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="56" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="70"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
@@ -1277,10 +1277,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="36"/>
+      <c r="G6" s="57"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="70"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>22</v>
@@ -1292,10 +1292,10 @@
         <v>25</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33">
+      <c r="A8" s="47">
         <v>43122</v>
       </c>
       <c r="B8" s="29"/>
@@ -1309,12 +1309,12 @@
         <v>46</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="59" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="34"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="30"/>
       <c r="C9" s="28" t="s">
         <v>48</v>
@@ -1326,13 +1326,13 @@
         <v>46</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="39"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59">
+      <c r="A10" s="51">
         <v>43123</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="46" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -1345,13 +1345,13 @@
         <v>34</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="72" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="60"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
@@ -1362,11 +1362,11 @@
         <v>32</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="63"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="60"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="46" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="24" t="s">
@@ -1379,11 +1379,11 @@
         <v>43</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="63"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="60"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="26" t="s">
         <v>37</v>
       </c>
@@ -1394,11 +1394,11 @@
         <v>50</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="63"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="60"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
@@ -1409,11 +1409,11 @@
         <v>51</v>
       </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="63"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="61"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="25" t="s">
         <v>41</v>
       </c>
@@ -1424,13 +1424,13 @@
         <v>51</v>
       </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="64"/>
+      <c r="G15" s="74"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="56">
+      <c r="A16" s="50">
         <v>43125</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -1443,13 +1443,13 @@
         <v>63</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="57">
+      <c r="G16" s="70">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="15" t="s">
         <v>55</v>
       </c>
@@ -1460,11 +1460,11 @@
         <v>63</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="58"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="15" t="s">
         <v>57</v>
       </c>
@@ -1475,11 +1475,11 @@
         <v>63</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="58"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7" ht="42.75">
-      <c r="A19" s="54"/>
-      <c r="B19" s="33" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1492,11 +1492,11 @@
         <v>63</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="58"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="15" t="s">
         <v>60</v>
       </c>
@@ -1509,11 +1509,11 @@
       <c r="F20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="58"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="15" t="s">
         <v>55</v>
       </c>
@@ -1526,13 +1526,13 @@
       <c r="F21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="46">
+      <c r="A22" s="65">
         <v>43126</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="65" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -1545,13 +1545,13 @@
         <v>84</v>
       </c>
       <c r="F22" s="31"/>
-      <c r="G22" s="43">
+      <c r="G22" s="62">
         <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="48"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="31" t="s">
         <v>68</v>
       </c>
@@ -1562,11 +1562,11 @@
         <v>84</v>
       </c>
       <c r="F23" s="31"/>
-      <c r="G23" s="44"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="48"/>
-      <c r="B24" s="50" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="69" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -1579,11 +1579,11 @@
         <v>84</v>
       </c>
       <c r="F24" s="31"/>
-      <c r="G24" s="44"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="48"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="31" t="s">
         <v>74</v>
       </c>
@@ -1594,11 +1594,11 @@
         <v>84</v>
       </c>
       <c r="F25" s="31"/>
-      <c r="G25" s="44"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="48"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="31" t="s">
         <v>80</v>
       </c>
@@ -1609,11 +1609,11 @@
         <v>84</v>
       </c>
       <c r="F26" s="31"/>
-      <c r="G26" s="44"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="48"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="31" t="s">
         <v>81</v>
       </c>
@@ -1624,11 +1624,11 @@
         <v>84</v>
       </c>
       <c r="F27" s="31"/>
-      <c r="G27" s="44"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="49"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="31" t="s">
         <v>72</v>
       </c>
@@ -1641,155 +1641,150 @@
       <c r="F28" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="42">
+      <c r="A29" s="39">
         <v>43127</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="71"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>92</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>93</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="71"/>
-      <c r="B31" s="41" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="71"/>
-      <c r="B32" s="41"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="71"/>
-      <c r="B33" s="41"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="71"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="71"/>
-      <c r="B35" s="41"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="71"/>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="G36" s="15"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="40"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="72" t="s">
+      <c r="D37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="15"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="40"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="71"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="15" t="s">
+      <c r="D38" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="71"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="74"/>
+      <c r="F38" s="43"/>
       <c r="G38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="F36:F38"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -1799,6 +1794,11 @@
     <mergeCell ref="A10:A15"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="F36:F38"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B29:B30"/>
